--- a/Structure/1 - Whole System/EnBalanceDataPJ.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataPJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0D8D4337-32E8-4162-B0C8-E1B4AB140BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{960C59D6-3E39-4271-808F-FCF679F72810}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0D8D4337-32E8-4162-B0C8-E1B4AB140BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56346D7D-4D14-40A3-80F1-1B6E00663037}"/>
   <bookViews>
-    <workbookView xWindow="-5490" yWindow="8960" windowWidth="14400" windowHeight="7670" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Gross calorific values</t>
   </si>
   <si>
-    <t>Thousand tonnes of oil equivalent</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -138,7 +135,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Aggregate energy balance (thousand tonnes of oil equivalent), Scotland, 2018</t>
+    <t>Aggregate energy balance (PetaJoules), Scotland, 2018</t>
+  </si>
+  <si>
+    <t>PJ</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -272,22 +272,8 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -608,7 +594,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -651,43 +637,43 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -701,770 +687,903 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="15">
-        <v>401.93995414158786</v>
-      </c>
-      <c r="C5" s="15">
-        <v>52926.146686182503</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="16">
+        <f>401.939954141588*(0.000041868*1000)</f>
+        <v>16.828422000000003</v>
+      </c>
+      <c r="C5" s="16">
+        <f>52926.1466861825*(0.000041868*1000)</f>
+        <v>2215.9119094570892</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="16">
-        <v>24122.958278160062</v>
+        <f>24122.9582781601*(0.000041868*1000)</f>
+        <v>1009.9800171900056</v>
       </c>
       <c r="F5" s="16">
-        <v>757.20375649635287</v>
-      </c>
-      <c r="G5" s="15">
-        <v>5034.0136633455586</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="15">
-        <v>83242.262338326065</v>
+        <f>757.203756496353*(0.000041868*1000)</f>
+        <v>31.702606876989304</v>
+      </c>
+      <c r="G5" s="16">
+        <f>5034.01366334556*(0.000041868*1000)</f>
+        <v>210.76408405695187</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="16">
+        <f>83242.2623383261*(0.000041868*1000)</f>
+        <v>3485.1870395810361</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="15">
-        <v>3.3916809974204643E-5</v>
-      </c>
-      <c r="C6" s="15">
-        <v>6090.2525177746411</v>
-      </c>
-      <c r="D6" s="15">
-        <v>3176.6055366253076</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="16">
+        <f>0.0000339168099742046*(0.000041868*1000)</f>
+        <v>1.4200290000000001E-6</v>
+      </c>
+      <c r="C6" s="16">
+        <f>6090.25251777464*(0.000041868*1000)</f>
+        <v>254.9866924141887</v>
+      </c>
+      <c r="D6" s="16">
+        <f>3176.60553662531*(0.000041868*1000)</f>
+        <v>132.99812060742838</v>
       </c>
       <c r="E6" s="16">
-        <v>14063.185452902055</v>
+        <f>14063.1854529021*(0.000041868*1000)</f>
+        <v>588.79744854210321</v>
       </c>
       <c r="F6" s="16">
-        <v>241.11632141442743</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="15">
-        <v>99.635167669819978</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="15">
-        <v>23670.795030303067</v>
+        <f>241.116321414427*(0.000041868*1000)</f>
+        <v>10.095058144979248</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16">
+        <f>99.63516766982*(0.000041868*1000)</f>
+        <v>4.1715252000000227</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="16">
+        <f>23670.795030303*(0.000041868*1000)</f>
+        <v>991.04884632872881</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="13">
-        <v>6090.2525177746411</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2446.5685462545644</v>
-      </c>
-      <c r="E7" s="13">
-        <v>14051.762682717188</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16">
+        <f>6090.25251777464*(0.000041868*1000)</f>
+        <v>254.9866924141887</v>
+      </c>
+      <c r="D7" s="16">
+        <f>2446.56854625456*(0.000041868*1000)</f>
+        <v>102.4329318945861</v>
+      </c>
+      <c r="E7" s="16">
+        <f>14051.7626827172*(0.000041868*1000)</f>
+        <v>588.31920000000321</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16">
+        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="13">
-        <v>730.03699037074352</v>
-      </c>
-      <c r="E8" s="17">
-        <v>11.422770184866787</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="13">
-        <v>99.635167669819978</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>13</v>
+      <c r="D8" s="16">
+        <f>730.036990370744*(0.000041868*1000)</f>
+        <v>30.565188712842293</v>
+      </c>
+      <c r="E8" s="16">
+        <f>11.4227701848668*(0.000041868*1000)</f>
+        <v>0.47824854210000267</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16">
+        <f>99.63516766982*(0.000041868*1000)</f>
+        <v>4.1715252000000227</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="15">
-        <v>-275.65451944274798</v>
-      </c>
-      <c r="C9" s="15">
-        <v>-47955.704136857777</v>
-      </c>
-      <c r="D9" s="15">
-        <v>-5979.4983924660055</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="16">
+        <f>-275.654519442748*(0.000041868*1000)</f>
+        <v>-11.541103420028973</v>
+      </c>
+      <c r="C9" s="16">
+        <f>-47955.7041368578*(0.000041868*1000)</f>
+        <v>-2007.8094208019616</v>
+      </c>
+      <c r="D9" s="16">
+        <f>-5979.49839246601*(0.000041868*1000)</f>
+        <v>-250.34963869576674</v>
       </c>
       <c r="E9" s="16">
-        <v>-28722.282377307893</v>
+        <f>-28722.2823773079*(0.000041868*1000)</f>
+        <v>-1202.5445185731269</v>
       </c>
       <c r="F9" s="16">
-        <v>-16.021582286988252</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-1261.8843508168598</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="15">
-        <v>-84211.045359178286</v>
+        <f>-16.0215822869883*(0.000041868*1000)</f>
+        <v>-0.67079160719162423</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16">
+        <f>-1261.88435081686*(0.000041868*1000)</f>
+        <v>-52.832574000000285</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="16">
+        <f>-84211.0453591783*(0.000041868*1000)</f>
+        <v>-3525.7480470980768</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="13">
-        <v>-22787.404014714884</v>
-      </c>
-      <c r="D10" s="13">
-        <v>-5596.7122406302451</v>
-      </c>
-      <c r="E10" s="17">
-        <v>-1679.1112652649533</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16">
+        <f>-22787.4040147149*(0.000041868*1000)</f>
+        <v>-954.06303128808281</v>
+      </c>
+      <c r="D10" s="16">
+        <f>-5596.71224063025*(0.000041868*1000)</f>
+        <v>-234.32314809070712</v>
+      </c>
+      <c r="E10" s="16">
+        <f>-1679.11126526495*(0.000041868*1000)</f>
+        <v>-70.301030454113075</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13">
-        <v>-25168.300122142897</v>
-      </c>
-      <c r="D11" s="13">
-        <v>-382.78615183576028</v>
-      </c>
-      <c r="E11" s="17">
-        <v>-27043.171112042939</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="13">
-        <v>-1261.8843508168598</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16">
+        <f>-25168.3001221429*(0.000041868*1000)</f>
+        <v>-1053.746389513879</v>
+      </c>
+      <c r="D11" s="16">
+        <f>-382.78615183576*(0.000041868*1000)</f>
+        <v>-16.026490605059614</v>
+      </c>
+      <c r="E11" s="16">
+        <f>-27043.1711120429*(0.000041868*1000)</f>
+        <v>-1132.2434881190138</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="16">
+        <f>-1261.88435081686*(0.000041868*1000)</f>
+        <v>-52.832574000000285</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-1002.590149267652</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16">
+        <f>-1002.59014926765*(0.000041868*1000)</f>
+        <v>-41.976444369538058</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="15">
-        <v>-1002.590149267652</v>
+        <v>12</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="16">
+        <f>-1002.59014926765*(0.000041868*1000)</f>
+        <v>-41.976444369538058</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="16">
+        <f>0*(0.000041868*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <f>44.8498820551719*(0.000041868*1000)</f>
+        <v>1.8777748618859389</v>
+      </c>
+      <c r="D13" s="16">
+        <f>44.7198792801668*(0.000041868*1000)</f>
+        <v>1.872331905702022</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="16">
+        <f>89.5697613353387*(0.000041868*1000)</f>
+        <v>3.7501067675879609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15">
-        <v>44.849882055171939</v>
-      </c>
-      <c r="D13" s="15">
-        <v>44.719879280166758</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="15">
-        <v>89.569761335338697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="19">
-        <v>126.28546861564988</v>
-      </c>
-      <c r="C14" s="19">
-        <v>11105.544949154541</v>
-      </c>
-      <c r="D14" s="19">
-        <v>-3760.7631258281831</v>
-      </c>
-      <c r="E14" s="20">
-        <v>9463.861353754226</v>
-      </c>
-      <c r="F14" s="20">
-        <v>981.73236197407516</v>
-      </c>
-      <c r="G14" s="19">
-        <v>5034.0136633455586</v>
-      </c>
-      <c r="H14" s="19">
-        <v>-1162.2491831470397</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="19">
-        <v>21788.425487868826</v>
+      <c r="B14" s="16">
+        <f>126.28546861565*(0.000041868*1000)</f>
+        <v>5.2873200000000296</v>
+      </c>
+      <c r="C14" s="16">
+        <f>11105.5449491545*(0.000041868*1000)</f>
+        <v>464.96695593120234</v>
+      </c>
+      <c r="D14" s="16">
+        <f>-3760.76312582818*(0.000041868*1000)</f>
+        <v>-157.45563055217437</v>
+      </c>
+      <c r="E14" s="16">
+        <f>9463.86135375423*(0.000041868*1000)</f>
+        <v>396.23294715898197</v>
+      </c>
+      <c r="F14" s="16">
+        <f>981.732361974075*(0.000041868*1000)</f>
+        <v>41.10317053113058</v>
+      </c>
+      <c r="G14" s="16">
+        <f>5034.01366334556*(0.000041868*1000)</f>
+        <v>210.76408405695187</v>
+      </c>
+      <c r="H14" s="16">
+        <f>-1162.24918314704*(0.000041868*1000)</f>
+        <v>-48.661048800000259</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="16">
+        <f>21788.4254878688*(0.000041868*1000)</f>
+        <v>912.23779832609205</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="16">
+        <f>0*(0.000041868*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <f>0*(0.000041868*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <f>-1.12404501495121*(0.000041868*1000)</f>
+        <v>-4.7061516685977141E-2</v>
+      </c>
+      <c r="E15" s="16">
+        <f>0*(0.000041868*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16">
+        <f>0*(0.000041868*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="16">
+        <f>-1.12404501495121*(0.000041868*1000)</f>
+        <v>-4.7061516685977141E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>-1.1240450149512071</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="15">
-        <v>-1.1240450149512071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="19">
-        <v>126.28546861564988</v>
-      </c>
-      <c r="C16" s="19">
-        <v>11105.544949154537</v>
-      </c>
-      <c r="D16" s="19">
-        <v>-3761.8871708431343</v>
-      </c>
-      <c r="E16" s="20">
-        <v>9463.8613537542296</v>
-      </c>
-      <c r="F16" s="20">
-        <v>981.73236197407516</v>
-      </c>
-      <c r="G16" s="19">
-        <v>5034.0136633455586</v>
-      </c>
-      <c r="H16" s="19">
-        <v>-1162.2491831470397</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="19">
-        <v>21787.301442853874</v>
+      <c r="B16" s="16">
+        <f>126.28546861565*(0.000041868*1000)</f>
+        <v>5.2873200000000296</v>
+      </c>
+      <c r="C16" s="16">
+        <f>11105.5449491545*(0.000041868*1000)</f>
+        <v>464.96695593120216</v>
+      </c>
+      <c r="D16" s="16">
+        <f>-3761.88717084313*(0.000041868*1000)</f>
+        <v>-157.50269206886037</v>
+      </c>
+      <c r="E16" s="16">
+        <f>9463.86135375423*(0.000041868*1000)</f>
+        <v>396.23294715898209</v>
+      </c>
+      <c r="F16" s="16">
+        <f>981.732361974075*(0.000041868*1000)</f>
+        <v>41.10317053113058</v>
+      </c>
+      <c r="G16" s="16">
+        <f>5034.01366334556*(0.000041868*1000)</f>
+        <v>210.76408405695187</v>
+      </c>
+      <c r="H16" s="16">
+        <f>-1162.24918314704*(0.000041868*1000)</f>
+        <v>-48.661048800000259</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="16">
+        <f>21787.3014428538*(0.000041868*1000)</f>
+        <v>912.19073680940608</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15">
-        <v>-1930.4810265331166</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1930.4810265331166</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16">
+        <f>-1930.48102653312*(0.000041868*1000)</f>
+        <v>-80.825379618888533</v>
+      </c>
+      <c r="D17" s="16">
+        <f>1930.48102653312*(0.000041868*1000)</f>
+        <v>80.825379618888533</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-2092.7724080189364</v>
-      </c>
-      <c r="H17" s="15">
-        <v>2092.7724080189364</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="15">
+        <v>12</v>
+      </c>
+      <c r="G17" s="16">
+        <f>-2092.77240801894*(0.000041868*1000)</f>
+        <v>-87.620195178936839</v>
+      </c>
+      <c r="H17" s="16">
+        <f>2092.77240801894*(0.000041868*1000)</f>
+        <v>87.620195178936839</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="16">
+        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="15">
+        <v>23</v>
+      </c>
+      <c r="B18" s="16">
+        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="15">
-        <v>-9175.0639226214207</v>
-      </c>
-      <c r="D18" s="15">
-        <v>8940.7948701448513</v>
-      </c>
-      <c r="E18" s="15">
-        <v>-1478.3858772496594</v>
-      </c>
-      <c r="F18" s="15">
-        <v>-544.66443420107191</v>
-      </c>
-      <c r="G18" s="15">
-        <v>-2941.2412553266217</v>
-      </c>
-      <c r="H18" s="15">
-        <v>2054.8110221894326</v>
-      </c>
-      <c r="I18" s="15">
-        <v>118.85195238779175</v>
-      </c>
-      <c r="J18" s="15">
-        <v>-3024.8976446766983</v>
+      <c r="C18" s="16">
+        <f>-9175.06392262142*(0.000041868*1000)</f>
+        <v>-384.14157631231365</v>
+      </c>
+      <c r="D18" s="16">
+        <f>8940.79487014485*(0.000041868*1000)</f>
+        <v>374.33319962322463</v>
+      </c>
+      <c r="E18" s="16">
+        <f>-1478.38587724966*(0.000041868*1000)</f>
+        <v>-61.897059908688746</v>
+      </c>
+      <c r="F18" s="16">
+        <f>-544.664434201072*(0.000041868*1000)</f>
+        <v>-22.80401053113048</v>
+      </c>
+      <c r="G18" s="16">
+        <f>-2941.24125532662*(0.000041868*1000)</f>
+        <v>-123.14388887801501</v>
+      </c>
+      <c r="H18" s="16">
+        <f>2054.81102218943*(0.000041868*1000)</f>
+        <v>86.030827877027164</v>
+      </c>
+      <c r="I18" s="16">
+        <f>118.851952387792*(0.000041868*1000)</f>
+        <v>4.9760935425720652</v>
+      </c>
+      <c r="J18" s="16">
+        <f>-3024.8976446767*(0.000041868*1000)</f>
+        <v>-126.64641458732402</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="13">
+        <v>24</v>
+      </c>
+      <c r="B19" s="16">
+        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13">
-        <v>-122.20203054151465</v>
-      </c>
-      <c r="E19" s="13">
-        <v>-1296.428062330529</v>
-      </c>
-      <c r="F19" s="13">
-        <v>-533.195107588528</v>
-      </c>
-      <c r="G19" s="13">
-        <v>-2941.2412553266217</v>
-      </c>
-      <c r="H19" s="13">
-        <v>2054.8110221894326</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="13">
-        <v>-2838.2554335977607</v>
+      <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="16">
+        <f>-122.202030541515*(0.000041868*1000)</f>
+        <v>-5.1163546147121357</v>
+      </c>
+      <c r="E19" s="16">
+        <f>-1296.42806233053*(0.000041868*1000)</f>
+        <v>-54.278850113654592</v>
+      </c>
+      <c r="F19" s="16">
+        <f>-533.195107588528*(0.000041868*1000)</f>
+        <v>-22.323812764516493</v>
+      </c>
+      <c r="G19" s="16">
+        <f>-2941.24125532662*(0.000041868*1000)</f>
+        <v>-123.14388887801501</v>
+      </c>
+      <c r="H19" s="16">
+        <f>2054.81102218943*(0.000041868*1000)</f>
+        <v>86.030827877027164</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="16">
+        <f>-2838.25543359776*(0.000041868*1000)</f>
+        <v>-118.83207849387105</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13">
-        <v>-9175.0639226214207</v>
-      </c>
-      <c r="D20" s="13">
-        <v>9125.3215529965692</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="13">
-        <v>-49.742369624851563</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="16">
+        <f>-9175.06392262142*(0.000041868*1000)</f>
+        <v>-384.14157631231365</v>
+      </c>
+      <c r="D20" s="16">
+        <f>9125.32155299657*(0.000041868*1000)</f>
+        <v>382.05896278086038</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="16">
+        <f>-49.7423696248516*(0.000041868*1000)</f>
+        <v>-2.0826135314532852</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="13">
+        <v>26</v>
+      </c>
+      <c r="B21" s="16">
+        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="13">
-        <v>-62.324652310203362</v>
-      </c>
-      <c r="E21" s="13">
-        <v>-181.95781491913053</v>
-      </c>
-      <c r="F21" s="13">
-        <v>-11.46932661254391</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="13">
-        <v>118.85195238779175</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-136.89984145408604</v>
+      <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="16">
+        <f>-62.3246523102034*(0.000041868*1000)</f>
+        <v>-2.6094085429235947</v>
+      </c>
+      <c r="E21" s="16">
+        <f>-181.957814919131*(0.000041868*1000)</f>
+        <v>-7.618209795034157</v>
+      </c>
+      <c r="F21" s="16">
+        <f>-11.4693266125439*(0.000041868*1000)</f>
+        <v>-0.48019776661398844</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="16">
+        <f>118.851952387792*(0.000041868*1000)</f>
+        <v>4.9760935425720652</v>
+      </c>
+      <c r="J21" s="16">
+        <f>-136.899841454086*(0.000041868*1000)</f>
+        <v>-5.7317225619996748</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="16">
+        <f>581.863154443223*(0.000041868*1000)</f>
+        <v>24.361446550228873</v>
+      </c>
+      <c r="E22" s="16">
+        <f>3761.58872711629*(0.000041868*1000)</f>
+        <v>157.49019682690465</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="16">
+        <f>430.615169703186*(0.000041868*1000)</f>
+        <v>18.028995925132978</v>
+      </c>
+      <c r="I22" s="16">
+        <f>30.5544459389521*(0.000041868*1000)</f>
+        <v>1.2792535425720448</v>
+      </c>
+      <c r="J22" s="16">
+        <f>4804.62149720165*(0.000041868*1000)</f>
+        <v>201.15989284483857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="15">
-        <v>581.86315444322327</v>
-      </c>
-      <c r="E22" s="15">
-        <v>3761.5887271162856</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="15">
-        <v>430.6151697031857</v>
-      </c>
-      <c r="I22" s="15">
-        <v>30.554445938952057</v>
-      </c>
-      <c r="J22" s="15">
-        <v>4804.6214972016469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="19">
-        <v>126.28546861564988</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="19">
-        <v>6527.5255713916094</v>
-      </c>
-      <c r="E23" s="19">
-        <v>4223.8867493882835</v>
-      </c>
-      <c r="F23" s="19">
-        <v>437.06792777300325</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="19">
-        <v>2554.7190773581437</v>
-      </c>
-      <c r="I23" s="19">
-        <v>88.297506448839698</v>
-      </c>
-      <c r="J23" s="19">
-        <v>13957.78230097553</v>
+      <c r="B23" s="16">
+        <f>126.28546861565*(0.000041868*1000)</f>
+        <v>5.2873200000000296</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="16">
+        <f>6527.52557139161*(0.000041868*1000)</f>
+        <v>273.29444062302395</v>
+      </c>
+      <c r="E23" s="16">
+        <f>4223.88674938828*(0.000041868*1000)</f>
+        <v>176.84569042338867</v>
+      </c>
+      <c r="F23" s="16">
+        <f>437.067927773003*(0.000041868*1000)</f>
+        <v>18.2991600000001</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="16">
+        <f>2554.71907735814*(0.000041868*1000)</f>
+        <v>106.96097833083077</v>
+      </c>
+      <c r="I23" s="16">
+        <f>88.2975064488397*(0.000041868*1000)</f>
+        <v>3.6968400000000208</v>
+      </c>
+      <c r="J23" s="16">
+        <f>13957.7823009755*(0.000041868*1000)</f>
+        <v>584.38442937724358</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1125.2647513822537</v>
-      </c>
-      <c r="E24" s="13">
-        <v>59.263883971473689</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="13">
-        <v>52.619899118795843</v>
-      </c>
-      <c r="J24" s="13">
-        <v>1237.1485344725234</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="16">
+        <f>1125.26475138225*(0.000041868*1000)</f>
+        <v>47.112584610872204</v>
+      </c>
+      <c r="E24" s="16">
+        <f>59.2638839714737*(0.000041868*1000)</f>
+        <v>2.4812602941176607</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="16">
+        <f>52.6198991187958*(0.000041868*1000)</f>
+        <v>2.2030899363057443</v>
+      </c>
+      <c r="J24" s="16">
+        <f>1237.14853447252*(0.000041868*1000)</f>
+        <v>51.796934841295609</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="13">
-        <v>80.37196056133088</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="13">
-        <v>177.56837512603184</v>
-      </c>
-      <c r="E25" s="13">
-        <v>935.55392882101103</v>
-      </c>
-      <c r="F25" s="13">
-        <v>98.132461902953565</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="13">
-        <v>714.94006808840356</v>
-      </c>
-      <c r="I25" s="13">
-        <v>9.4953201417375954</v>
-      </c>
-      <c r="J25" s="13">
-        <v>2016.0621146414685</v>
+        <v>30</v>
+      </c>
+      <c r="B25" s="16">
+        <f>80.3719605613309*(0.000041868*1000)</f>
+        <v>3.3650132447818013</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="16">
+        <f>177.568375126032*(0.000041868*1000)</f>
+        <v>7.4344327297767014</v>
+      </c>
+      <c r="E25" s="16">
+        <f>935.553928821011*(0.000041868*1000)</f>
+        <v>39.169771891878092</v>
+      </c>
+      <c r="F25" s="16">
+        <f>98.1324619029536*(0.000041868*1000)</f>
+        <v>4.1086099149528605</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="16">
+        <f>714.940068088404*(0.000041868*1000)</f>
+        <v>29.933110770725282</v>
+      </c>
+      <c r="I25" s="16">
+        <f>9.4953201417376*(0.000041868*1000)</f>
+        <v>0.39755006369426965</v>
+      </c>
+      <c r="J25" s="16">
+        <f>2016.06211464147*(0.000041868*1000)</f>
+        <v>84.408488615809006</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="13">
-        <v>43.430782459157591</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="13">
-        <v>263.14447083901541</v>
-      </c>
-      <c r="E26" s="13">
-        <v>2355.44966903881</v>
-      </c>
-      <c r="F26" s="13">
-        <v>160.10730182375826</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13">
-        <v>1059.1373970396792</v>
-      </c>
-      <c r="I26" s="13">
-        <v>26.182287188306248</v>
-      </c>
-      <c r="J26" s="13">
-        <v>3907.4519083887267</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="16">
+        <f>43.4307824591576*(0.000041868*1000)</f>
+        <v>1.8183600000000102</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="16">
+        <f>263.144470839015*(0.000041868*1000)</f>
+        <v>11.017332705087897</v>
+      </c>
+      <c r="E26" s="16">
+        <f>2355.44966903881*(0.000041868*1000)</f>
+        <v>98.617966743316899</v>
+      </c>
+      <c r="F26" s="16">
+        <f>160.107301823758*(0.000041868*1000)</f>
+        <v>6.7033725127571113</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="16">
+        <f>1059.13739703968*(0.000041868*1000)</f>
+        <v>44.343964539257293</v>
+      </c>
+      <c r="I26" s="16">
+        <f>26.1822871883062*(0.000041868*1000)</f>
+        <v>1.0962000000000061</v>
+      </c>
+      <c r="J26" s="16">
+        <f>3907.45190838873*(0.000041868*1000)</f>
+        <v>163.59719650041922</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0.36113499570077584</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="13">
-        <v>4449.0157472838027</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="13">
-        <v>92.185039969441235</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="13">
-        <v>38.348248213293964</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="13">
-        <v>4579.910170462239</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="16">
+        <f>0.361134995700776*(0.000041868*1000)</f>
+        <v>1.5120000000000083E-2</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="16">
+        <f>4449.0157472838*(0.000041868*1000)</f>
+        <v>186.27139130727826</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="16">
+        <f>92.1850399694412*(0.000041868*1000)</f>
+        <v>3.8596032534405658</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="16">
+        <f>38.348248213294*(0.000041868*1000)</f>
+        <v>1.6055644561941917</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="16">
+        <f>4579.91017046224*(0.000041868*1000)</f>
+        <v>191.75167901691304</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="13">
-        <v>2.1129921471820268</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="13">
-        <v>512.53222676050734</v>
-      </c>
-      <c r="E28" s="13">
-        <v>873.61926755698801</v>
-      </c>
-      <c r="F28" s="13">
-        <v>86.643124076850185</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="13">
-        <v>742.29336401676699</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="13">
-        <v>2217.2009745582945</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="16">
+        <f>2.11299214718203*(0.000041868*1000)</f>
+        <v>8.8466755218217105E-2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="16">
+        <f>512.532226760507*(0.000041868*1000)</f>
+        <v>21.458699270008921</v>
+      </c>
+      <c r="E28" s="16">
+        <f>873.619267556988*(0.000041868*1000)</f>
+        <v>36.576691494075973</v>
+      </c>
+      <c r="F28" s="16">
+        <f>86.6431240768502*(0.000041868*1000)</f>
+        <v>3.6275743188495637</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="16">
+        <f>742.293364016767*(0.000041868*1000)</f>
+        <v>31.078338564654</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="16">
+        <f>2217.20097455829*(0.000041868*1000)</f>
+        <v>92.829770402806687</v>
       </c>
     </row>
   </sheetData>

--- a/Structure/1 - Whole System/EnBalanceDataPJ.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataPJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0D8D4337-32E8-4162-B0C8-E1B4AB140BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56346D7D-4D14-40A3-80F1-1B6E00663037}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B056823-4545-49ED-A9AA-28B2C80A9B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -594,13 +588,13 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J5" sqref="B5:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
     <col min="3" max="3" width="14.26953125" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
@@ -608,7 +602,7 @@
     <col min="7" max="7" width="20.54296875" customWidth="1"/>
     <col min="8" max="8" width="12.54296875" customWidth="1"/>
     <col min="9" max="9" width="30.54296875" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -690,27 +684,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="16">
-        <f>401.939954141588*(0.000041868*1000)</f>
-        <v>16.828422000000003</v>
+        <f>268.317044043183*(0.000041868*1000)</f>
+        <v>11.233898</v>
       </c>
       <c r="C5" s="16">
-        <f>52926.1466861825*(0.000041868*1000)</f>
-        <v>2215.9119094570892</v>
+        <f>53880.7714668655*(0.000041868*1000)</f>
+        <v>2255.8801397747234</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="16">
-        <f>24122.9582781601*(0.000041868*1000)</f>
-        <v>1009.9800171900056</v>
+        <f>19933.8685218677*(0.000041868*1000)</f>
+        <v>834.59120727355867</v>
       </c>
       <c r="F5" s="16">
-        <f>757.203756496353*(0.000041868*1000)</f>
-        <v>31.702606876989304</v>
+        <f>761.88279159088*(0.000041868*1000)</f>
+        <v>31.898508718326969</v>
       </c>
       <c r="G5" s="16">
-        <f>5034.01366334556*(0.000041868*1000)</f>
-        <v>210.76408405695187</v>
+        <f>5295.87838266739*(0.000041868*1000)</f>
+        <v>221.72783612551822</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>12</v>
@@ -719,8 +713,8 @@
         <v>12</v>
       </c>
       <c r="J5" s="16">
-        <f>83242.2623383261*(0.000041868*1000)</f>
-        <v>3485.1870395810361</v>
+        <f>80140.7182070346*(0.000041868*1000)</f>
+        <v>3355.3315898921269</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -728,38 +722,38 @@
         <v>13</v>
       </c>
       <c r="B6" s="16">
-        <f>0.0000339168099742046*(0.000041868*1000)</f>
-        <v>1.4200290000000001E-6</v>
+        <f>0.001652228288908*(0.000041868*1000)</f>
+        <v>6.9175494000000006E-5</v>
       </c>
       <c r="C6" s="16">
-        <f>6090.25251777464*(0.000041868*1000)</f>
-        <v>254.9866924141887</v>
+        <f>7102.85287169978*(0.000041868*1000)</f>
+        <v>297.38224403232658</v>
       </c>
       <c r="D6" s="16">
-        <f>3176.60553662531*(0.000041868*1000)</f>
-        <v>132.99812060742838</v>
+        <f>2518.98227025408*(0.000041868*1000)</f>
+        <v>105.46474969099773</v>
       </c>
       <c r="E6" s="16">
-        <f>14063.1854529021*(0.000041868*1000)</f>
-        <v>588.79744854210321</v>
+        <f>9496.98027800329*(0.000041868*1000)</f>
+        <v>397.6195702794418</v>
       </c>
       <c r="F6" s="16">
-        <f>241.116321414427*(0.000041868*1000)</f>
-        <v>10.095058144979248</v>
+        <f>318.290520825423*(0.000041868*1000)</f>
+        <v>13.32618752591879</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16">
-        <f>99.63516766982*(0.000041868*1000)</f>
-        <v>4.1715252000000227</v>
+        <f>106.933190025796*(0.000041868*1000)</f>
+        <v>4.477078800000025</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="16">
-        <f>23670.795030303*(0.000041868*1000)</f>
-        <v>991.04884632872881</v>
+        <f>19544.0407830367*(0.000041868*1000)</f>
+        <v>818.26989950417897</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -770,16 +764,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="16">
-        <f>6090.25251777464*(0.000041868*1000)</f>
-        <v>254.9866924141887</v>
+        <f>7102.85287169978*(0.000041868*1000)</f>
+        <v>297.38224403232658</v>
       </c>
       <c r="D7" s="16">
-        <f>2446.56854625456*(0.000041868*1000)</f>
-        <v>102.4329318945861</v>
+        <f>1800.08230715409*(0.000041868*1000)</f>
+        <v>75.365846035927234</v>
       </c>
       <c r="E7" s="16">
-        <f>14051.7626827172*(0.000041868*1000)</f>
-        <v>588.31920000000321</v>
+        <f>9459.2330180568*(0.000041868*1000)</f>
+        <v>396.03916800000223</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>12</v>
@@ -809,12 +803,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>730.036990370744*(0.000041868*1000)</f>
-        <v>30.565188712842293</v>
+        <f>718.899963099993*(0.000041868*1000)</f>
+        <v>30.098903655070497</v>
       </c>
       <c r="E8" s="16">
-        <f>11.4227701848668*(0.000041868*1000)</f>
-        <v>0.47824854210000267</v>
+        <f>37.7472599464895*(0.000041868*1000)</f>
+        <v>1.5804022794396206</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>12</v>
@@ -823,8 +817,8 @@
         <v>12</v>
       </c>
       <c r="H8" s="16">
-        <f>99.63516766982*(0.000041868*1000)</f>
-        <v>4.1715252000000227</v>
+        <f>106.933190025796*(0.000041868*1000)</f>
+        <v>4.477078800000025</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>12</v>
@@ -838,38 +832,38 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <f>-275.654519442748*(0.000041868*1000)</f>
-        <v>-11.541103420028973</v>
+        <f>-146.756652546287*(0.000041868*1000)</f>
+        <v>-6.1444075288079327</v>
       </c>
       <c r="C9" s="16">
-        <f>-47955.7041368578*(0.000041868*1000)</f>
-        <v>-2007.8094208019616</v>
+        <f>-50098.1352068041*(0.000041868*1000)</f>
+        <v>-2097.5087248384762</v>
       </c>
       <c r="D9" s="16">
-        <f>-5979.49839246601*(0.000041868*1000)</f>
-        <v>-250.34963869576674</v>
+        <f>-5063.17365149441*(0.000041868*1000)</f>
+        <v>-211.98495444076815</v>
       </c>
       <c r="E9" s="16">
-        <f>-28722.2823773079*(0.000041868*1000)</f>
-        <v>-1202.5445185731269</v>
+        <f>-20211.2349506173*(0.000041868*1000)</f>
+        <v>-846.20398491244703</v>
       </c>
       <c r="F9" s="16">
-        <f>-16.0215822869883*(0.000041868*1000)</f>
-        <v>-0.67079160719162423</v>
+        <f>-23.5247610724466*(0.000041868*1000)</f>
+        <v>-0.9849346965811957</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="16">
-        <f>-1261.88435081686*(0.000041868*1000)</f>
-        <v>-52.832574000000285</v>
+        <f>-1470.09595872744*(0.000041868*1000)</f>
+        <v>-61.549977600000339</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="16">
-        <f>-84211.0453591783*(0.000041868*1000)</f>
-        <v>-3525.7480470980768</v>
+        <f>-77012.9211812621*(0.000041868*1000)</f>
+        <v>-3224.3769840170808</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -880,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="16">
-        <f>-22787.4040147149*(0.000041868*1000)</f>
-        <v>-954.06303128808281</v>
+        <f>-37699.5751654623*(0.000041868*1000)</f>
+        <v>-1578.4058130275755</v>
       </c>
       <c r="D10" s="16">
-        <f>-5596.71224063025*(0.000041868*1000)</f>
-        <v>-234.32314809070712</v>
+        <f>-3237.47667390101*(0.000041868*1000)</f>
+        <v>-135.54667338288738</v>
       </c>
       <c r="E10" s="16">
-        <f>-1679.11126526495*(0.000041868*1000)</f>
-        <v>-70.301030454113075</v>
+        <f>-2676.35339638866*(0.000041868*1000)</f>
+        <v>-112.05356400000062</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>12</v>
@@ -915,16 +909,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="16">
-        <f>-25168.3001221429*(0.000041868*1000)</f>
-        <v>-1053.746389513879</v>
+        <f>-12398.5600413418*(0.000041868*1000)</f>
+        <v>-519.10291181090042</v>
       </c>
       <c r="D11" s="16">
-        <f>-382.78615183576*(0.000041868*1000)</f>
-        <v>-16.026490605059614</v>
+        <f>-1825.69697759341*(0.000041868*1000)</f>
+        <v>-76.438281057880758</v>
       </c>
       <c r="E11" s="16">
-        <f>-27043.1711120429*(0.000041868*1000)</f>
-        <v>-1132.2434881190138</v>
+        <f>-17534.8815542287*(0.000041868*1000)</f>
+        <v>-734.15042091244641</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>12</v>
@@ -933,8 +927,8 @@
         <v>12</v>
       </c>
       <c r="H11" s="16">
-        <f>-1261.88435081686*(0.000041868*1000)</f>
-        <v>-52.832574000000285</v>
+        <f>-1470.09595872744*(0.000041868*1000)</f>
+        <v>-61.549977600000339</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>12</v>
@@ -954,8 +948,8 @@
         <v>12</v>
       </c>
       <c r="D12" s="16">
-        <f>-1002.59014926765*(0.000041868*1000)</f>
-        <v>-41.976444369538058</v>
+        <f>-958.026686408587*(0.000041868*1000)</f>
+        <v>-40.110661306554725</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>12</v>
@@ -973,8 +967,8 @@
         <v>12</v>
       </c>
       <c r="J12" s="16">
-        <f>-1002.59014926765*(0.000041868*1000)</f>
-        <v>-41.976444369538058</v>
+        <f>-958.026686408587*(0.000041868*1000)</f>
+        <v>-40.110661306554725</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -986,12 +980,12 @@
         <v>0</v>
       </c>
       <c r="C13" s="16">
-        <f>44.8498820551719*(0.000041868*1000)</f>
-        <v>1.8777748618859389</v>
+        <f>-14.2067019350796*(0.000041868*1000)</f>
+        <v>-0.59480619661791112</v>
       </c>
       <c r="D13" s="16">
-        <f>44.7198792801668*(0.000041868*1000)</f>
-        <v>1.872331905702022</v>
+        <f>-97.1088195122426*(0.000041868*1000)</f>
+        <v>-4.0657520553385726</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>12</v>
@@ -1009,8 +1003,8 @@
         <v>12</v>
       </c>
       <c r="J13" s="16">
-        <f>89.5697613353387*(0.000041868*1000)</f>
-        <v>3.7501067675879609</v>
+        <f>-111.315521447322*(0.000041868*1000)</f>
+        <v>-4.6605582519564841</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1018,39 +1012,39 @@
         <v>19</v>
       </c>
       <c r="B14" s="16">
-        <f>126.28546861565*(0.000041868*1000)</f>
-        <v>5.2873200000000296</v>
+        <f>121.562043725186*(0.000041868*1000)</f>
+        <v>5.0895596466860678</v>
       </c>
       <c r="C14" s="16">
-        <f>11105.5449491545*(0.000041868*1000)</f>
-        <v>464.96695593120234</v>
+        <f>10871.282429826*(0.000041868*1000)</f>
+        <v>455.15885277195571</v>
       </c>
       <c r="D14" s="16">
-        <f>-3760.76312582818*(0.000041868*1000)</f>
-        <v>-157.45563055217437</v>
+        <f>-3599.32688716117*(0.000041868*1000)</f>
+        <v>-150.6966181116637</v>
       </c>
       <c r="E14" s="16">
-        <f>9463.86135375423*(0.000041868*1000)</f>
-        <v>396.23294715898197</v>
+        <f>9219.61384925369*(0.000041868*1000)</f>
+        <v>386.00679264055344</v>
       </c>
       <c r="F14" s="16">
-        <f>981.732361974075*(0.000041868*1000)</f>
-        <v>41.10317053113058</v>
+        <f>1056.66643938455*(0.000041868*1000)</f>
+        <v>44.240510484152331</v>
       </c>
       <c r="G14" s="16">
-        <f>5034.01366334556*(0.000041868*1000)</f>
-        <v>210.76408405695187</v>
+        <f>5295.87838266739*(0.000041868*1000)</f>
+        <v>221.72783612551822</v>
       </c>
       <c r="H14" s="16">
-        <f>-1162.24918314704*(0.000041868*1000)</f>
-        <v>-48.661048800000259</v>
+        <f>-1363.16276870164*(0.000041868*1000)</f>
+        <v>-57.072898800000317</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="16">
-        <f>21788.4254878688*(0.000041868*1000)</f>
-        <v>912.23779832609205</v>
+        <f>21602.513488994*(0.000041868*1000)</f>
+        <v>904.45403475720173</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1066,8 +1060,8 @@
         <v>0</v>
       </c>
       <c r="D15" s="16">
-        <f>-1.12404501495121*(0.000041868*1000)</f>
-        <v>-4.7061516685977141E-2</v>
+        <f>-2.50498755436502*(0.000041868*1000)</f>
+        <v>-0.1048788189261545</v>
       </c>
       <c r="E15" s="16">
         <f>0*(0.000041868*1000)</f>
@@ -1087,8 +1081,8 @@
         <v>12</v>
       </c>
       <c r="J15" s="16">
-        <f>-1.12404501495121*(0.000041868*1000)</f>
-        <v>-4.7061516685977141E-2</v>
+        <f>-2.50498755436502*(0.000041868*1000)</f>
+        <v>-0.1048788189261545</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1096,39 +1090,39 @@
         <v>21</v>
       </c>
       <c r="B16" s="16">
-        <f>126.28546861565*(0.000041868*1000)</f>
-        <v>5.2873200000000296</v>
+        <f>121.562043725186*(0.000041868*1000)</f>
+        <v>5.0895596466860678</v>
       </c>
       <c r="C16" s="16">
-        <f>11105.5449491545*(0.000041868*1000)</f>
-        <v>464.96695593120216</v>
+        <f>10871.282429826*(0.000041868*1000)</f>
+        <v>455.15885277195571</v>
       </c>
       <c r="D16" s="16">
-        <f>-3761.88717084313*(0.000041868*1000)</f>
-        <v>-157.50269206886037</v>
+        <f>-3601.83187471553*(0.000041868*1000)</f>
+        <v>-150.80149693058985</v>
       </c>
       <c r="E16" s="16">
-        <f>9463.86135375423*(0.000041868*1000)</f>
-        <v>396.23294715898209</v>
+        <f>9219.61384925369*(0.000041868*1000)</f>
+        <v>386.00679264055344</v>
       </c>
       <c r="F16" s="16">
-        <f>981.732361974075*(0.000041868*1000)</f>
-        <v>41.10317053113058</v>
+        <f>1056.66643938455*(0.000041868*1000)</f>
+        <v>44.240510484152331</v>
       </c>
       <c r="G16" s="16">
-        <f>5034.01366334556*(0.000041868*1000)</f>
-        <v>210.76408405695187</v>
+        <f>5295.87838266739*(0.000041868*1000)</f>
+        <v>221.72783612551822</v>
       </c>
       <c r="H16" s="16">
-        <f>-1162.24918314704*(0.000041868*1000)</f>
-        <v>-48.661048800000259</v>
+        <f>-1363.16276870164*(0.000041868*1000)</f>
+        <v>-57.072898800000296</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="16">
-        <f>21787.3014428538*(0.000041868*1000)</f>
-        <v>912.19073680940608</v>
+        <f>21600.0085014397*(0.000041868*1000)</f>
+        <v>904.34915593827566</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1139,12 +1133,12 @@
         <v>12</v>
       </c>
       <c r="C17" s="16">
-        <f>-1930.48102653312*(0.000041868*1000)</f>
-        <v>-80.825379618888533</v>
+        <f>-1074.95404307907*(0.000041868*1000)</f>
+        <v>-45.006175875634433</v>
       </c>
       <c r="D17" s="16">
-        <f>1930.48102653312*(0.000041868*1000)</f>
-        <v>80.825379618888533</v>
+        <f>1074.95404307907*(0.000041868*1000)</f>
+        <v>45.006175875634433</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>12</v>
@@ -1153,12 +1147,12 @@
         <v>12</v>
       </c>
       <c r="G17" s="16">
-        <f>-2092.77240801894*(0.000041868*1000)</f>
-        <v>-87.620195178936839</v>
+        <f>-2411.77908700585*(0.000041868*1000)</f>
+        <v>-100.97636681476088</v>
       </c>
       <c r="H17" s="16">
-        <f>2092.77240801894*(0.000041868*1000)</f>
-        <v>87.620195178936839</v>
+        <f>2411.77908700585*(0.000041868*1000)</f>
+        <v>100.97636681476088</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>12</v>
@@ -1177,36 +1171,36 @@
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <f>-9175.06392262142*(0.000041868*1000)</f>
-        <v>-384.14157631231365</v>
+        <f>-9796.32838674695*(0.000041868*1000)</f>
+        <v>-410.15267689632128</v>
       </c>
       <c r="D18" s="16">
-        <f>8940.79487014485*(0.000041868*1000)</f>
-        <v>374.33319962322463</v>
+        <f>9591.39837070903*(0.000041868*1000)</f>
+        <v>401.5726669848458</v>
       </c>
       <c r="E18" s="16">
-        <f>-1478.38587724966*(0.000041868*1000)</f>
-        <v>-61.897059908688746</v>
+        <f>-1232.62948669258*(0.000041868*1000)</f>
+        <v>-51.607731348844887</v>
       </c>
       <c r="F18" s="16">
-        <f>-544.664434201072*(0.000041868*1000)</f>
-        <v>-22.80401053113048</v>
+        <f>-620.371710682914*(0.000041868*1000)</f>
+        <v>-25.973722782872226</v>
       </c>
       <c r="G18" s="16">
-        <f>-2941.24125532662*(0.000041868*1000)</f>
-        <v>-123.14388887801501</v>
+        <f>-2884.09929566154*(0.000041868*1000)</f>
+        <v>-120.75146931075733</v>
       </c>
       <c r="H18" s="16">
-        <f>2054.81102218943*(0.000041868*1000)</f>
-        <v>86.030827877027164</v>
+        <f>1884.81864151407*(0.000041868*1000)</f>
+        <v>78.913586882910963</v>
       </c>
       <c r="I18" s="16">
-        <f>118.851952387792*(0.000041868*1000)</f>
-        <v>4.9760935425720652</v>
+        <f>120.373501974195*(0.000041868*1000)</f>
+        <v>5.0397977806555962</v>
       </c>
       <c r="J18" s="16">
-        <f>-3024.8976446767*(0.000041868*1000)</f>
-        <v>-126.64641458732402</v>
+        <f>-2936.83836558669*(0.000041868*1000)</f>
+        <v>-122.95954869038337</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1221,31 +1215,31 @@
         <v>12</v>
       </c>
       <c r="D19" s="16">
-        <f>-122.202030541515*(0.000041868*1000)</f>
-        <v>-5.1163546147121357</v>
+        <f>-58.2590093102158*(0.000041868*1000)</f>
+        <v>-2.4391882018001159</v>
       </c>
       <c r="E19" s="16">
-        <f>-1296.42806233053*(0.000041868*1000)</f>
-        <v>-54.278850113654592</v>
+        <f>-1065.24836469818*(0.000041868*1000)</f>
+        <v>-44.599818533183452</v>
       </c>
       <c r="F19" s="16">
-        <f>-533.195107588528*(0.000041868*1000)</f>
-        <v>-22.323812764516493</v>
+        <f>-607.379894386499*(0.000041868*1000)</f>
+        <v>-25.429781418173931</v>
       </c>
       <c r="G19" s="16">
-        <f>-2941.24125532662*(0.000041868*1000)</f>
-        <v>-123.14388887801501</v>
+        <f>-2884.09929566154*(0.000041868*1000)</f>
+        <v>-120.75146931075733</v>
       </c>
       <c r="H19" s="16">
-        <f>2054.81102218943*(0.000041868*1000)</f>
-        <v>86.030827877027164</v>
+        <f>1884.81864151407*(0.000041868*1000)</f>
+        <v>78.913586882910963</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="16">
-        <f>-2838.25543359776*(0.000041868*1000)</f>
-        <v>-118.83207849387105</v>
+        <f>-2730.16792254237*(0.000041868*1000)</f>
+        <v>-114.30667058100386</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1256,12 +1250,12 @@
         <v>12</v>
       </c>
       <c r="C20" s="16">
-        <f>-9175.06392262142*(0.000041868*1000)</f>
-        <v>-384.14157631231365</v>
+        <f>-9796.32838674695*(0.000041868*1000)</f>
+        <v>-410.15267689632128</v>
       </c>
       <c r="D20" s="16">
-        <f>9125.32155299657*(0.000041868*1000)</f>
-        <v>382.05896278086038</v>
+        <f>9710.40430875117*(0.000041868*1000)</f>
+        <v>406.55520759879397</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>12</v>
@@ -1279,8 +1273,8 @@
         <v>12</v>
       </c>
       <c r="J20" s="16">
-        <f>-49.7423696248516*(0.000041868*1000)</f>
-        <v>-2.0826135314532852</v>
+        <f>-85.92407799578*(0.000041868*1000)</f>
+        <v>-3.5974692975273155</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1295,16 +1289,16 @@
         <v>12</v>
       </c>
       <c r="D21" s="16">
-        <f>-62.3246523102034*(0.000041868*1000)</f>
-        <v>-2.6094085429235947</v>
+        <f>-60.7469287319217*(0.000041868*1000)</f>
+        <v>-2.5433524121480979</v>
       </c>
       <c r="E21" s="16">
-        <f>-181.957814919131*(0.000041868*1000)</f>
-        <v>-7.618209795034157</v>
+        <f>-167.381121994397*(0.000041868*1000)</f>
+        <v>-7.007912815661431</v>
       </c>
       <c r="F21" s="16">
-        <f>-11.4693266125439*(0.000041868*1000)</f>
-        <v>-0.48019776661398844</v>
+        <f>-12.9918162964148*(0.000041868*1000)</f>
+        <v>-0.54394136469829291</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>12</v>
@@ -1313,12 +1307,12 @@
         <v>12</v>
       </c>
       <c r="I21" s="16">
-        <f>118.851952387792*(0.000041868*1000)</f>
-        <v>4.9760935425720652</v>
+        <f>120.373501974195*(0.000041868*1000)</f>
+        <v>5.0397977806555962</v>
       </c>
       <c r="J21" s="16">
-        <f>-136.899841454086*(0.000041868*1000)</f>
-        <v>-5.7317225619996748</v>
+        <f>-120.746365048539*(0.000041868*1000)</f>
+        <v>-5.0554088118522262</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1332,12 +1326,12 @@
         <v>12</v>
       </c>
       <c r="D22" s="16">
-        <f>581.863154443223*(0.000041868*1000)</f>
-        <v>24.361446550228873</v>
+        <f>568.974945953073*(0.000041868*1000)</f>
+        <v>23.821843037163244</v>
       </c>
       <c r="E22" s="16">
-        <f>3761.58872711629*(0.000041868*1000)</f>
-        <v>157.49019682690465</v>
+        <f>3833.73551740504*(0.000041868*1000)</f>
+        <v>160.51083864271425</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>12</v>
@@ -1346,16 +1340,16 @@
         <v>12</v>
       </c>
       <c r="H22" s="16">
-        <f>430.615169703186*(0.000041868*1000)</f>
-        <v>18.028995925132978</v>
+        <f>407.108852539177*(0.000041868*1000)</f>
+        <v>17.04483343811027</v>
       </c>
       <c r="I22" s="16">
-        <f>30.5544459389521*(0.000041868*1000)</f>
-        <v>1.2792535425720448</v>
+        <f>22.7625980704971*(0.000041868*1000)</f>
+        <v>0.95302445601557351</v>
       </c>
       <c r="J22" s="16">
-        <f>4804.62149720165*(0.000041868*1000)</f>
-        <v>201.15989284483857</v>
+        <f>4832.58191396779*(0.000041868*1000)</f>
+        <v>202.33053957400332</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1363,38 +1357,38 @@
         <v>28</v>
       </c>
       <c r="B23" s="16">
-        <f>126.28546861565*(0.000041868*1000)</f>
-        <v>5.2873200000000296</v>
+        <f>121.562043725186*(0.000041868*1000)</f>
+        <v>5.0895596466860678</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="16">
-        <f>6527.52557139161*(0.000041868*1000)</f>
-        <v>273.29444062302395</v>
+        <f>6495.5455931195*(0.000041868*1000)</f>
+        <v>271.95550289272711</v>
       </c>
       <c r="E23" s="16">
-        <f>4223.88674938828*(0.000041868*1000)</f>
-        <v>176.84569042338867</v>
+        <f>4153.24884515607*(0.000041868*1000)</f>
+        <v>173.88822264899429</v>
       </c>
       <c r="F23" s="16">
-        <f>437.067927773003*(0.000041868*1000)</f>
-        <v>18.2991600000001</v>
+        <f>436.294728701636*(0.000041868*1000)</f>
+        <v>18.266787701280101</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="16">
-        <f>2554.71907735814*(0.000041868*1000)</f>
-        <v>106.96097833083077</v>
+        <f>2526.3261072791*(0.000041868*1000)</f>
+        <v>105.77222145956128</v>
       </c>
       <c r="I23" s="16">
-        <f>88.2975064488397*(0.000041868*1000)</f>
-        <v>3.6968400000000208</v>
+        <f>97.6109039036979*(0.000041868*1000)</f>
+        <v>4.0867733246400224</v>
       </c>
       <c r="J23" s="16">
-        <f>13957.7823009755*(0.000041868*1000)</f>
-        <v>584.38442937724358</v>
+        <f>13830.5882218852*(0.000041868*1000)</f>
+        <v>579.05906767388888</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1408,12 +1402,12 @@
         <v>12</v>
       </c>
       <c r="D24" s="16">
-        <f>1125.26475138225*(0.000041868*1000)</f>
-        <v>47.112584610872204</v>
+        <f>1013.62204108264*(0.000041868*1000)</f>
+        <v>42.438327616047964</v>
       </c>
       <c r="E24" s="16">
-        <f>59.2638839714737*(0.000041868*1000)</f>
-        <v>2.4812602941176607</v>
+        <f>57.4853612139045*(0.000041868*1000)</f>
+        <v>2.4067971033037558</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>12</v>
@@ -1425,12 +1419,12 @@
         <v>12</v>
       </c>
       <c r="I24" s="16">
-        <f>52.6198991187958*(0.000041868*1000)</f>
-        <v>2.2030899363057443</v>
+        <f>61.4373843877839*(0.000041868*1000)</f>
+        <v>2.5722604095477344</v>
       </c>
       <c r="J24" s="16">
-        <f>1237.14853447252*(0.000041868*1000)</f>
-        <v>51.796934841295609</v>
+        <f>1132.54478668433*(0.000041868*1000)</f>
+        <v>47.417385128899447</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1438,38 +1432,38 @@
         <v>30</v>
       </c>
       <c r="B25" s="16">
-        <f>80.3719605613309*(0.000041868*1000)</f>
-        <v>3.3650132447818013</v>
+        <f>75.9946093406569*(0.000041868*1000)</f>
+        <v>3.1817423038746222</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="16">
-        <f>177.568375126032*(0.000041868*1000)</f>
-        <v>7.4344327297767014</v>
+        <f>183.193386029603*(0.000041868*1000)</f>
+        <v>7.6699406862874353</v>
       </c>
       <c r="E25" s="16">
-        <f>935.553928821011*(0.000041868*1000)</f>
-        <v>39.169771891878092</v>
+        <f>872.786526244717*(0.000041868*1000)</f>
+        <v>36.541826280813815</v>
       </c>
       <c r="F25" s="16">
-        <f>98.1324619029536*(0.000041868*1000)</f>
-        <v>4.1086099149528605</v>
+        <f>87.1497722986362*(0.000041868*1000)</f>
+        <v>3.6487866665993023</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="16">
-        <f>714.940068088404*(0.000041868*1000)</f>
-        <v>29.933110770725282</v>
+        <f>718.469198196105*(0.000041868*1000)</f>
+        <v>30.080868390074521</v>
       </c>
       <c r="I25" s="16">
-        <f>9.4953201417376*(0.000041868*1000)</f>
-        <v>0.39755006369426965</v>
+        <f>9.68054749183821*(0.000041868*1000)</f>
+        <v>0.40530516238828235</v>
       </c>
       <c r="J25" s="16">
-        <f>2016.06211464147*(0.000041868*1000)</f>
-        <v>84.408488615809006</v>
+        <f>1947.27403960156*(0.000041868*1000)</f>
+        <v>81.528469490037978</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1477,38 +1471,38 @@
         <v>31</v>
       </c>
       <c r="B26" s="16">
-        <f>43.4307824591576*(0.000041868*1000)</f>
-        <v>1.8183600000000102</v>
+        <f>43.434813440241*(0.000041868*1000)</f>
+        <v>1.8185287691160101</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="16">
-        <f>263.144470839015*(0.000041868*1000)</f>
-        <v>11.017332705087897</v>
+        <f>267.627792634267*(0.000041868*1000)</f>
+        <v>11.205040422011511</v>
       </c>
       <c r="E26" s="16">
-        <f>2355.44966903881*(0.000041868*1000)</f>
-        <v>98.617966743316899</v>
+        <f>2368.09096194734*(0.000041868*1000)</f>
+        <v>99.147232394811255</v>
       </c>
       <c r="F26" s="16">
-        <f>160.107301823758*(0.000041868*1000)</f>
-        <v>6.7033725127571113</v>
+        <f>146.081652325973*(0.000041868*1000)</f>
+        <v>6.1161466195838203</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="16">
-        <f>1059.13739703968*(0.000041868*1000)</f>
-        <v>44.343964539257293</v>
+        <f>1025.07929743162*(0.000041868*1000)</f>
+        <v>42.918020024866905</v>
       </c>
       <c r="I26" s="16">
-        <f>26.1822871883062*(0.000041868*1000)</f>
-        <v>1.0962000000000061</v>
+        <f>26.4929720197766*(0.000041868*1000)</f>
+        <v>1.1092077525240058</v>
       </c>
       <c r="J26" s="16">
-        <f>3907.45190838873*(0.000041868*1000)</f>
-        <v>163.59719650041922</v>
+        <f>3876.80748979921*(0.000041868*1000)</f>
+        <v>162.3141759829135</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1516,36 +1510,36 @@
         <v>32</v>
       </c>
       <c r="B27" s="16">
-        <f>0.361134995700776*(0.000041868*1000)</f>
-        <v>1.5120000000000083E-2</v>
+        <f>0.365163956999142*(0.000041868*1000)</f>
+        <v>1.5288684551640083E-2</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="16">
-        <f>4449.0157472838*(0.000041868*1000)</f>
-        <v>186.27139130727826</v>
+        <f>4496.77270215507*(0.000041868*1000)</f>
+        <v>188.27087949382837</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="16">
-        <f>92.1850399694412*(0.000041868*1000)</f>
-        <v>3.8596032534405658</v>
+        <f>115.683101348052*(0.000041868*1000)</f>
+        <v>4.8434200872402542</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="16">
-        <f>38.348248213294*(0.000041868*1000)</f>
-        <v>1.6055644561941917</v>
+        <f>42.7853284170371*(0.000041868*1000)</f>
+        <v>1.791336130164511</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="16">
-        <f>4579.91017046224*(0.000041868*1000)</f>
-        <v>191.75167901691304</v>
+        <f>4655.60629587716*(0.000041868*1000)</f>
+        <v>194.92092439578477</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1553,37 +1547,37 @@
         <v>33</v>
       </c>
       <c r="B28" s="16">
-        <f>2.11299214718203*(0.000041868*1000)</f>
-        <v>8.8466755218217105E-2</v>
+        <f>1.76745698728853*(0.000041868*1000)</f>
+        <v>7.3999889143796002E-2</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="16">
-        <f>512.532226760507*(0.000041868*1000)</f>
-        <v>21.458699270008921</v>
+        <f>534.329671217919*(0.000041868*1000)</f>
+        <v>22.371314674551829</v>
       </c>
       <c r="E28" s="16">
-        <f>873.619267556988*(0.000041868*1000)</f>
-        <v>36.576691494075973</v>
+        <f>854.885995750106*(0.000041868*1000)</f>
+        <v>35.792366870065436</v>
       </c>
       <c r="F28" s="16">
-        <f>86.6431240768502*(0.000041868*1000)</f>
-        <v>3.6275743188495637</v>
+        <f>87.380202728975*(0.000041868*1000)</f>
+        <v>3.6584343278567246</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="16">
-        <f>742.293364016767*(0.000041868*1000)</f>
-        <v>31.078338564654</v>
+        <f>739.99228323434*(0.000041868*1000)</f>
+        <v>30.98199691445533</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="16">
-        <f>2217.20097455829*(0.000041868*1000)</f>
-        <v>92.829770402806687</v>
+        <f>2218.35560991863*(0.000041868*1000)</f>
+        <v>92.87811267607313</v>
       </c>
     </row>
   </sheetData>

--- a/Structure/1 - Whole System/EnBalanceDataPJ.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataPJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B056823-4545-49ED-A9AA-28B2C80A9B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153207CC-EFA3-4763-AEC6-B11ACB0F3490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="9360" yWindow="3820" windowWidth="28800" windowHeight="15460" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Aggregate energy balance (PetaJoules), Scotland, 2018</t>
-  </si>
-  <si>
     <t>PJ</t>
+  </si>
+  <si>
+    <t>Aggregate energy balance (PetaJoules), Scotland, 2019</t>
   </si>
 </sst>
 </file>
@@ -587,9 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E34935-EB74-4926-BE8C-7B40FCC27029}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="B5:J28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -607,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -631,7 +629,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -684,27 +682,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="16">
-        <f>268.317044043183*(0.000041868*1000)</f>
-        <v>11.233898</v>
+        <f>268*(0.000041868*1000)</f>
+        <v>11.220624000000001</v>
       </c>
       <c r="C5" s="16">
-        <f>53880.7714668655*(0.000041868*1000)</f>
-        <v>2255.8801397747234</v>
+        <f>53881*(0.000041868*1000)</f>
+        <v>2255.8897080000002</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="16">
-        <f>19933.8685218677*(0.000041868*1000)</f>
-        <v>834.59120727355867</v>
+        <f>19934*(0.000041868*1000)</f>
+        <v>834.59671200000003</v>
       </c>
       <c r="F5" s="16">
-        <f>761.88279159088*(0.000041868*1000)</f>
-        <v>31.898508718326969</v>
+        <f>762*(0.000041868*1000)</f>
+        <v>31.903416000000004</v>
       </c>
       <c r="G5" s="16">
-        <f>5295.87838266739*(0.000041868*1000)</f>
-        <v>221.72783612551822</v>
+        <f>5296*(0.000041868*1000)</f>
+        <v>221.73292800000002</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>12</v>
@@ -713,8 +711,8 @@
         <v>12</v>
       </c>
       <c r="J5" s="16">
-        <f>80140.7182070346*(0.000041868*1000)</f>
-        <v>3355.3315898921269</v>
+        <f>80141*(0.000041868*1000)</f>
+        <v>3355.3433880000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -722,38 +720,38 @@
         <v>13</v>
       </c>
       <c r="B6" s="16">
-        <f>0.001652228288908*(0.000041868*1000)</f>
-        <v>6.9175494000000006E-5</v>
+        <f>0*(0.000041868*1000)</f>
+        <v>0</v>
       </c>
       <c r="C6" s="16">
-        <f>7102.85287169978*(0.000041868*1000)</f>
-        <v>297.38224403232658</v>
+        <f>7103*(0.000041868*1000)</f>
+        <v>297.38840400000004</v>
       </c>
       <c r="D6" s="16">
-        <f>2518.98227025408*(0.000041868*1000)</f>
-        <v>105.46474969099773</v>
+        <f>2519*(0.000041868*1000)</f>
+        <v>105.46549200000001</v>
       </c>
       <c r="E6" s="16">
-        <f>9496.98027800329*(0.000041868*1000)</f>
-        <v>397.6195702794418</v>
+        <f>9497*(0.000041868*1000)</f>
+        <v>397.62039600000003</v>
       </c>
       <c r="F6" s="16">
-        <f>318.290520825423*(0.000041868*1000)</f>
-        <v>13.32618752591879</v>
+        <f>318*(0.000041868*1000)</f>
+        <v>13.314024000000002</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16">
-        <f>106.933190025796*(0.000041868*1000)</f>
-        <v>4.477078800000025</v>
+        <f>107*(0.000041868*1000)</f>
+        <v>4.479876</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="16">
-        <f>19544.0407830367*(0.000041868*1000)</f>
-        <v>818.26989950417897</v>
+        <f>19544*(0.000041868*1000)</f>
+        <v>818.268192</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -764,16 +762,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="16">
-        <f>7102.85287169978*(0.000041868*1000)</f>
-        <v>297.38224403232658</v>
+        <f>7103*(0.000041868*1000)</f>
+        <v>297.38840400000004</v>
       </c>
       <c r="D7" s="16">
-        <f>1800.08230715409*(0.000041868*1000)</f>
-        <v>75.365846035927234</v>
+        <f>1800*(0.000041868*1000)</f>
+        <v>75.362400000000008</v>
       </c>
       <c r="E7" s="16">
-        <f>9459.2330180568*(0.000041868*1000)</f>
-        <v>396.03916800000223</v>
+        <f>9459*(0.000041868*1000)</f>
+        <v>396.02941200000004</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>12</v>
@@ -803,12 +801,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>718.899963099993*(0.000041868*1000)</f>
-        <v>30.098903655070497</v>
+        <f>719*(0.000041868*1000)</f>
+        <v>30.103092</v>
       </c>
       <c r="E8" s="16">
-        <f>37.7472599464895*(0.000041868*1000)</f>
-        <v>1.5804022794396206</v>
+        <f>38*(0.000041868*1000)</f>
+        <v>1.5909840000000002</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>12</v>
@@ -817,8 +815,8 @@
         <v>12</v>
       </c>
       <c r="H8" s="16">
-        <f>106.933190025796*(0.000041868*1000)</f>
-        <v>4.477078800000025</v>
+        <f>107*(0.000041868*1000)</f>
+        <v>4.479876</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>12</v>
@@ -832,38 +830,38 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <f>-146.756652546287*(0.000041868*1000)</f>
-        <v>-6.1444075288079327</v>
+        <f>-147*(0.000041868*1000)</f>
+        <v>-6.1545960000000006</v>
       </c>
       <c r="C9" s="16">
-        <f>-50098.1352068041*(0.000041868*1000)</f>
-        <v>-2097.5087248384762</v>
+        <f>-50098*(0.000041868*1000)</f>
+        <v>-2097.503064</v>
       </c>
       <c r="D9" s="16">
-        <f>-5063.17365149441*(0.000041868*1000)</f>
-        <v>-211.98495444076815</v>
+        <f>-5063*(0.000041868*1000)</f>
+        <v>-211.97768400000001</v>
       </c>
       <c r="E9" s="16">
-        <f>-20211.2349506173*(0.000041868*1000)</f>
-        <v>-846.20398491244703</v>
+        <f>-20211*(0.000041868*1000)</f>
+        <v>-846.19414800000004</v>
       </c>
       <c r="F9" s="16">
-        <f>-23.5247610724466*(0.000041868*1000)</f>
-        <v>-0.9849346965811957</v>
+        <f>-24*(0.000041868*1000)</f>
+        <v>-1.0048319999999999</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="16">
-        <f>-1470.09595872744*(0.000041868*1000)</f>
-        <v>-61.549977600000339</v>
+        <f>-1470*(0.000041868*1000)</f>
+        <v>-61.545960000000001</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="16">
-        <f>-77012.9211812621*(0.000041868*1000)</f>
-        <v>-3224.3769840170808</v>
+        <f>-77013*(0.000041868*1000)</f>
+        <v>-3224.3802840000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -874,16 +872,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="16">
-        <f>-37699.5751654623*(0.000041868*1000)</f>
-        <v>-1578.4058130275755</v>
+        <f>-37700*(0.000041868*1000)</f>
+        <v>-1578.4236000000001</v>
       </c>
       <c r="D10" s="16">
-        <f>-3237.47667390101*(0.000041868*1000)</f>
-        <v>-135.54667338288738</v>
+        <f>-3237*(0.000041868*1000)</f>
+        <v>-135.52671600000002</v>
       </c>
       <c r="E10" s="16">
-        <f>-2676.35339638866*(0.000041868*1000)</f>
-        <v>-112.05356400000062</v>
+        <f>-2676*(0.000041868*1000)</f>
+        <v>-112.038768</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>12</v>
@@ -909,16 +907,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="16">
-        <f>-12398.5600413418*(0.000041868*1000)</f>
-        <v>-519.10291181090042</v>
+        <f>-12399*(0.000041868*1000)</f>
+        <v>-519.12133200000005</v>
       </c>
       <c r="D11" s="16">
-        <f>-1825.69697759341*(0.000041868*1000)</f>
-        <v>-76.438281057880758</v>
+        <f>-1826*(0.000041868*1000)</f>
+        <v>-76.450968000000003</v>
       </c>
       <c r="E11" s="16">
-        <f>-17534.8815542287*(0.000041868*1000)</f>
-        <v>-734.15042091244641</v>
+        <f>-17535*(0.000041868*1000)</f>
+        <v>-734.15538000000004</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>12</v>
@@ -927,8 +925,8 @@
         <v>12</v>
       </c>
       <c r="H11" s="16">
-        <f>-1470.09595872744*(0.000041868*1000)</f>
-        <v>-61.549977600000339</v>
+        <f>-1470*(0.000041868*1000)</f>
+        <v>-61.545960000000001</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>12</v>
@@ -948,8 +946,8 @@
         <v>12</v>
       </c>
       <c r="D12" s="16">
-        <f>-958.026686408587*(0.000041868*1000)</f>
-        <v>-40.110661306554725</v>
+        <f>-958*(0.000041868*1000)</f>
+        <v>-40.109544</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>12</v>
@@ -967,8 +965,8 @@
         <v>12</v>
       </c>
       <c r="J12" s="16">
-        <f>-958.026686408587*(0.000041868*1000)</f>
-        <v>-40.110661306554725</v>
+        <f>-958*(0.000041868*1000)</f>
+        <v>-40.109544</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -980,12 +978,12 @@
         <v>0</v>
       </c>
       <c r="C13" s="16">
-        <f>-14.2067019350796*(0.000041868*1000)</f>
-        <v>-0.59480619661791112</v>
+        <f>-14*(0.000041868*1000)</f>
+        <v>-0.58615200000000001</v>
       </c>
       <c r="D13" s="16">
-        <f>-97.1088195122426*(0.000041868*1000)</f>
-        <v>-4.0657520553385726</v>
+        <f>-97*(0.000041868*1000)</f>
+        <v>-4.0611959999999998</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>12</v>
@@ -1003,8 +1001,8 @@
         <v>12</v>
       </c>
       <c r="J13" s="16">
-        <f>-111.315521447322*(0.000041868*1000)</f>
-        <v>-4.6605582519564841</v>
+        <f>-111*(0.000041868*1000)</f>
+        <v>-4.647348</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1012,39 +1010,39 @@
         <v>19</v>
       </c>
       <c r="B14" s="16">
-        <f>121.562043725186*(0.000041868*1000)</f>
-        <v>5.0895596466860678</v>
+        <f>122*(0.000041868*1000)</f>
+        <v>5.1078960000000002</v>
       </c>
       <c r="C14" s="16">
-        <f>10871.282429826*(0.000041868*1000)</f>
-        <v>455.15885277195571</v>
+        <f>10871*(0.000041868*1000)</f>
+        <v>455.14702800000003</v>
       </c>
       <c r="D14" s="16">
-        <f>-3599.32688716117*(0.000041868*1000)</f>
-        <v>-150.6966181116637</v>
+        <f>-3599*(0.000041868*1000)</f>
+        <v>-150.68293200000002</v>
       </c>
       <c r="E14" s="16">
-        <f>9219.61384925369*(0.000041868*1000)</f>
-        <v>386.00679264055344</v>
+        <f>9220*(0.000041868*1000)</f>
+        <v>386.02296000000001</v>
       </c>
       <c r="F14" s="16">
-        <f>1056.66643938455*(0.000041868*1000)</f>
-        <v>44.240510484152331</v>
+        <f>1057*(0.000041868*1000)</f>
+        <v>44.254476000000004</v>
       </c>
       <c r="G14" s="16">
-        <f>5295.87838266739*(0.000041868*1000)</f>
-        <v>221.72783612551822</v>
+        <f>5296*(0.000041868*1000)</f>
+        <v>221.73292800000002</v>
       </c>
       <c r="H14" s="16">
-        <f>-1363.16276870164*(0.000041868*1000)</f>
-        <v>-57.072898800000317</v>
+        <f>-1363*(0.000041868*1000)</f>
+        <v>-57.066084000000004</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="16">
-        <f>21602.513488994*(0.000041868*1000)</f>
-        <v>904.45403475720173</v>
+        <f>21603*(0.000041868*1000)</f>
+        <v>904.47440400000005</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1060,8 +1058,8 @@
         <v>0</v>
       </c>
       <c r="D15" s="16">
-        <f>-2.50498755436502*(0.000041868*1000)</f>
-        <v>-0.1048788189261545</v>
+        <f>-3*(0.000041868*1000)</f>
+        <v>-0.12560399999999999</v>
       </c>
       <c r="E15" s="16">
         <f>0*(0.000041868*1000)</f>
@@ -1081,8 +1079,8 @@
         <v>12</v>
       </c>
       <c r="J15" s="16">
-        <f>-2.50498755436502*(0.000041868*1000)</f>
-        <v>-0.1048788189261545</v>
+        <f>-3*(0.000041868*1000)</f>
+        <v>-0.12560399999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1090,39 +1088,39 @@
         <v>21</v>
       </c>
       <c r="B16" s="16">
-        <f>121.562043725186*(0.000041868*1000)</f>
-        <v>5.0895596466860678</v>
+        <f>122*(0.000041868*1000)</f>
+        <v>5.1078960000000002</v>
       </c>
       <c r="C16" s="16">
-        <f>10871.282429826*(0.000041868*1000)</f>
-        <v>455.15885277195571</v>
+        <f>10871*(0.000041868*1000)</f>
+        <v>455.14702800000003</v>
       </c>
       <c r="D16" s="16">
-        <f>-3601.83187471553*(0.000041868*1000)</f>
-        <v>-150.80149693058985</v>
+        <f>-3602*(0.000041868*1000)</f>
+        <v>-150.808536</v>
       </c>
       <c r="E16" s="16">
-        <f>9219.61384925369*(0.000041868*1000)</f>
-        <v>386.00679264055344</v>
+        <f>9220*(0.000041868*1000)</f>
+        <v>386.02296000000001</v>
       </c>
       <c r="F16" s="16">
-        <f>1056.66643938455*(0.000041868*1000)</f>
-        <v>44.240510484152331</v>
+        <f>1057*(0.000041868*1000)</f>
+        <v>44.254476000000004</v>
       </c>
       <c r="G16" s="16">
-        <f>5295.87838266739*(0.000041868*1000)</f>
-        <v>221.72783612551822</v>
+        <f>5296*(0.000041868*1000)</f>
+        <v>221.73292800000002</v>
       </c>
       <c r="H16" s="16">
-        <f>-1363.16276870164*(0.000041868*1000)</f>
-        <v>-57.072898800000296</v>
+        <f>-1363*(0.000041868*1000)</f>
+        <v>-57.066084000000004</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="16">
-        <f>21600.0085014397*(0.000041868*1000)</f>
-        <v>904.34915593827566</v>
+        <f>21600*(0.000041868*1000)</f>
+        <v>904.3488000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1133,12 +1131,12 @@
         <v>12</v>
       </c>
       <c r="C17" s="16">
-        <f>-1074.95404307907*(0.000041868*1000)</f>
-        <v>-45.006175875634433</v>
+        <f>-1075*(0.000041868*1000)</f>
+        <v>-45.008100000000006</v>
       </c>
       <c r="D17" s="16">
-        <f>1074.95404307907*(0.000041868*1000)</f>
-        <v>45.006175875634433</v>
+        <f>1075*(0.000041868*1000)</f>
+        <v>45.008100000000006</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>12</v>
@@ -1147,12 +1145,12 @@
         <v>12</v>
       </c>
       <c r="G17" s="16">
-        <f>-2411.77908700585*(0.000041868*1000)</f>
-        <v>-100.97636681476088</v>
+        <f>-2412*(0.000041868*1000)</f>
+        <v>-100.98561600000001</v>
       </c>
       <c r="H17" s="16">
-        <f>2411.77908700585*(0.000041868*1000)</f>
-        <v>100.97636681476088</v>
+        <f>2412*(0.000041868*1000)</f>
+        <v>100.98561600000001</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>12</v>
@@ -1171,36 +1169,36 @@
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <f>-9796.32838674695*(0.000041868*1000)</f>
-        <v>-410.15267689632128</v>
+        <f>-9796*(0.000041868*1000)</f>
+        <v>-410.13892800000002</v>
       </c>
       <c r="D18" s="16">
-        <f>9591.39837070903*(0.000041868*1000)</f>
-        <v>401.5726669848458</v>
+        <f>9591*(0.000041868*1000)</f>
+        <v>401.55598800000001</v>
       </c>
       <c r="E18" s="16">
-        <f>-1232.62948669258*(0.000041868*1000)</f>
-        <v>-51.607731348844887</v>
+        <f>-1233*(0.000041868*1000)</f>
+        <v>-51.623244</v>
       </c>
       <c r="F18" s="16">
-        <f>-620.371710682914*(0.000041868*1000)</f>
-        <v>-25.973722782872226</v>
+        <f>-620*(0.000041868*1000)</f>
+        <v>-25.958160000000003</v>
       </c>
       <c r="G18" s="16">
-        <f>-2884.09929566154*(0.000041868*1000)</f>
-        <v>-120.75146931075733</v>
+        <f>-2884*(0.000041868*1000)</f>
+        <v>-120.74731200000001</v>
       </c>
       <c r="H18" s="16">
-        <f>1884.81864151407*(0.000041868*1000)</f>
-        <v>78.913586882910963</v>
+        <f>1885*(0.000041868*1000)</f>
+        <v>78.921180000000007</v>
       </c>
       <c r="I18" s="16">
-        <f>120.373501974195*(0.000041868*1000)</f>
-        <v>5.0397977806555962</v>
+        <f>120*(0.000041868*1000)</f>
+        <v>5.0241600000000002</v>
       </c>
       <c r="J18" s="16">
-        <f>-2936.83836558669*(0.000041868*1000)</f>
-        <v>-122.95954869038337</v>
+        <f>-2937*(0.000041868*1000)</f>
+        <v>-122.96631600000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1215,31 +1213,31 @@
         <v>12</v>
       </c>
       <c r="D19" s="16">
-        <f>-58.2590093102158*(0.000041868*1000)</f>
-        <v>-2.4391882018001159</v>
+        <f>-58*(0.000041868*1000)</f>
+        <v>-2.4283440000000001</v>
       </c>
       <c r="E19" s="16">
-        <f>-1065.24836469818*(0.000041868*1000)</f>
-        <v>-44.599818533183452</v>
+        <f>-1065*(0.000041868*1000)</f>
+        <v>-44.589420000000004</v>
       </c>
       <c r="F19" s="16">
-        <f>-607.379894386499*(0.000041868*1000)</f>
-        <v>-25.429781418173931</v>
+        <f>-607*(0.000041868*1000)</f>
+        <v>-25.413876000000002</v>
       </c>
       <c r="G19" s="16">
-        <f>-2884.09929566154*(0.000041868*1000)</f>
-        <v>-120.75146931075733</v>
+        <f>-2884*(0.000041868*1000)</f>
+        <v>-120.74731200000001</v>
       </c>
       <c r="H19" s="16">
-        <f>1884.81864151407*(0.000041868*1000)</f>
-        <v>78.913586882910963</v>
+        <f>1885*(0.000041868*1000)</f>
+        <v>78.921180000000007</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="16">
-        <f>-2730.16792254237*(0.000041868*1000)</f>
-        <v>-114.30667058100386</v>
+        <f>-2730*(0.000041868*1000)</f>
+        <v>-114.29964000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1250,12 +1248,12 @@
         <v>12</v>
       </c>
       <c r="C20" s="16">
-        <f>-9796.32838674695*(0.000041868*1000)</f>
-        <v>-410.15267689632128</v>
+        <f>-9796*(0.000041868*1000)</f>
+        <v>-410.13892800000002</v>
       </c>
       <c r="D20" s="16">
-        <f>9710.40430875117*(0.000041868*1000)</f>
-        <v>406.55520759879397</v>
+        <f>9710*(0.000041868*1000)</f>
+        <v>406.53828000000004</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>12</v>
@@ -1273,8 +1271,8 @@
         <v>12</v>
       </c>
       <c r="J20" s="16">
-        <f>-85.92407799578*(0.000041868*1000)</f>
-        <v>-3.5974692975273155</v>
+        <f>-86*(0.000041868*1000)</f>
+        <v>-3.6006480000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1289,16 +1287,16 @@
         <v>12</v>
       </c>
       <c r="D21" s="16">
-        <f>-60.7469287319217*(0.000041868*1000)</f>
-        <v>-2.5433524121480979</v>
+        <f>-61*(0.000041868*1000)</f>
+        <v>-2.5539480000000001</v>
       </c>
       <c r="E21" s="16">
-        <f>-167.381121994397*(0.000041868*1000)</f>
-        <v>-7.007912815661431</v>
+        <f>-167*(0.000041868*1000)</f>
+        <v>-6.9919560000000001</v>
       </c>
       <c r="F21" s="16">
-        <f>-12.9918162964148*(0.000041868*1000)</f>
-        <v>-0.54394136469829291</v>
+        <f>-13*(0.000041868*1000)</f>
+        <v>-0.54428399999999999</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>12</v>
@@ -1307,12 +1305,12 @@
         <v>12</v>
       </c>
       <c r="I21" s="16">
-        <f>120.373501974195*(0.000041868*1000)</f>
-        <v>5.0397977806555962</v>
+        <f>120*(0.000041868*1000)</f>
+        <v>5.0241600000000002</v>
       </c>
       <c r="J21" s="16">
-        <f>-120.746365048539*(0.000041868*1000)</f>
-        <v>-5.0554088118522262</v>
+        <f>-121*(0.000041868*1000)</f>
+        <v>-5.0660280000000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1326,12 +1324,12 @@
         <v>12</v>
       </c>
       <c r="D22" s="16">
-        <f>568.974945953073*(0.000041868*1000)</f>
-        <v>23.821843037163244</v>
+        <f>569*(0.000041868*1000)</f>
+        <v>23.822892000000003</v>
       </c>
       <c r="E22" s="16">
-        <f>3833.73551740504*(0.000041868*1000)</f>
-        <v>160.51083864271425</v>
+        <f>3834*(0.000041868*1000)</f>
+        <v>160.52191200000001</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>12</v>
@@ -1340,16 +1338,16 @@
         <v>12</v>
       </c>
       <c r="H22" s="16">
-        <f>407.108852539177*(0.000041868*1000)</f>
-        <v>17.04483343811027</v>
+        <f>407*(0.000041868*1000)</f>
+        <v>17.040276000000002</v>
       </c>
       <c r="I22" s="16">
-        <f>22.7625980704971*(0.000041868*1000)</f>
-        <v>0.95302445601557351</v>
+        <f>23*(0.000041868*1000)</f>
+        <v>0.96296400000000004</v>
       </c>
       <c r="J22" s="16">
-        <f>4832.58191396779*(0.000041868*1000)</f>
-        <v>202.33053957400332</v>
+        <f>4833*(0.000041868*1000)</f>
+        <v>202.34804400000002</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1357,38 +1355,38 @@
         <v>28</v>
       </c>
       <c r="B23" s="16">
-        <f>121.562043725186*(0.000041868*1000)</f>
-        <v>5.0895596466860678</v>
+        <f>122*(0.000041868*1000)</f>
+        <v>5.1078960000000002</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="16">
-        <f>6495.5455931195*(0.000041868*1000)</f>
-        <v>271.95550289272711</v>
+        <f>6496*(0.000041868*1000)</f>
+        <v>271.97452800000002</v>
       </c>
       <c r="E23" s="16">
-        <f>4153.24884515607*(0.000041868*1000)</f>
-        <v>173.88822264899429</v>
+        <f>4153*(0.000041868*1000)</f>
+        <v>173.877804</v>
       </c>
       <c r="F23" s="16">
-        <f>436.294728701636*(0.000041868*1000)</f>
-        <v>18.266787701280101</v>
+        <f>436*(0.000041868*1000)</f>
+        <v>18.254448</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="16">
-        <f>2526.3261072791*(0.000041868*1000)</f>
-        <v>105.77222145956128</v>
+        <f>2526*(0.000041868*1000)</f>
+        <v>105.75856800000001</v>
       </c>
       <c r="I23" s="16">
-        <f>97.6109039036979*(0.000041868*1000)</f>
-        <v>4.0867733246400224</v>
+        <f>98*(0.000041868*1000)</f>
+        <v>4.1030639999999998</v>
       </c>
       <c r="J23" s="16">
-        <f>13830.5882218852*(0.000041868*1000)</f>
-        <v>579.05906767388888</v>
+        <f>13831*(0.000041868*1000)</f>
+        <v>579.07630800000004</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1402,12 +1400,12 @@
         <v>12</v>
       </c>
       <c r="D24" s="16">
-        <f>1013.62204108264*(0.000041868*1000)</f>
-        <v>42.438327616047964</v>
+        <f>1014*(0.000041868*1000)</f>
+        <v>42.454152000000001</v>
       </c>
       <c r="E24" s="16">
-        <f>57.4853612139045*(0.000041868*1000)</f>
-        <v>2.4067971033037558</v>
+        <f>57*(0.000041868*1000)</f>
+        <v>2.386476</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>12</v>
@@ -1419,12 +1417,12 @@
         <v>12</v>
       </c>
       <c r="I24" s="16">
-        <f>61.4373843877839*(0.000041868*1000)</f>
-        <v>2.5722604095477344</v>
+        <f>61*(0.000041868*1000)</f>
+        <v>2.5539480000000001</v>
       </c>
       <c r="J24" s="16">
-        <f>1132.54478668433*(0.000041868*1000)</f>
-        <v>47.417385128899447</v>
+        <f>1133*(0.000041868*1000)</f>
+        <v>47.436444000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1432,38 +1430,38 @@
         <v>30</v>
       </c>
       <c r="B25" s="16">
-        <f>75.9946093406569*(0.000041868*1000)</f>
-        <v>3.1817423038746222</v>
+        <f>76*(0.000041868*1000)</f>
+        <v>3.1819680000000004</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="16">
-        <f>183.193386029603*(0.000041868*1000)</f>
-        <v>7.6699406862874353</v>
+        <f>183*(0.000041868*1000)</f>
+        <v>7.6618440000000003</v>
       </c>
       <c r="E25" s="16">
-        <f>872.786526244717*(0.000041868*1000)</f>
-        <v>36.541826280813815</v>
+        <f>873*(0.000041868*1000)</f>
+        <v>36.550764000000001</v>
       </c>
       <c r="F25" s="16">
-        <f>87.1497722986362*(0.000041868*1000)</f>
-        <v>3.6487866665993023</v>
+        <f>87*(0.000041868*1000)</f>
+        <v>3.6425160000000001</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="16">
-        <f>718.469198196105*(0.000041868*1000)</f>
-        <v>30.080868390074521</v>
+        <f>718*(0.000041868*1000)</f>
+        <v>30.061224000000003</v>
       </c>
       <c r="I25" s="16">
-        <f>9.68054749183821*(0.000041868*1000)</f>
-        <v>0.40530516238828235</v>
+        <f>10*(0.000041868*1000)</f>
+        <v>0.41868000000000005</v>
       </c>
       <c r="J25" s="16">
-        <f>1947.27403960156*(0.000041868*1000)</f>
-        <v>81.528469490037978</v>
+        <f>1947*(0.000041868*1000)</f>
+        <v>81.516996000000006</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1471,38 +1469,38 @@
         <v>31</v>
       </c>
       <c r="B26" s="16">
-        <f>43.434813440241*(0.000041868*1000)</f>
-        <v>1.8185287691160101</v>
+        <f>43*(0.000041868*1000)</f>
+        <v>1.800324</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="16">
-        <f>267.627792634267*(0.000041868*1000)</f>
-        <v>11.205040422011511</v>
+        <f>268*(0.000041868*1000)</f>
+        <v>11.220624000000001</v>
       </c>
       <c r="E26" s="16">
-        <f>2368.09096194734*(0.000041868*1000)</f>
-        <v>99.147232394811255</v>
+        <f>2368*(0.000041868*1000)</f>
+        <v>99.14342400000001</v>
       </c>
       <c r="F26" s="16">
-        <f>146.081652325973*(0.000041868*1000)</f>
-        <v>6.1161466195838203</v>
+        <f>146*(0.000041868*1000)</f>
+        <v>6.1127280000000006</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="16">
-        <f>1025.07929743162*(0.000041868*1000)</f>
-        <v>42.918020024866905</v>
+        <f>1025*(0.000041868*1000)</f>
+        <v>42.914700000000003</v>
       </c>
       <c r="I26" s="16">
-        <f>26.4929720197766*(0.000041868*1000)</f>
-        <v>1.1092077525240058</v>
+        <f>26*(0.000041868*1000)</f>
+        <v>1.088568</v>
       </c>
       <c r="J26" s="16">
-        <f>3876.80748979921*(0.000041868*1000)</f>
-        <v>162.3141759829135</v>
+        <f>3877*(0.000041868*1000)</f>
+        <v>162.322236</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1510,36 +1508,36 @@
         <v>32</v>
       </c>
       <c r="B27" s="16">
-        <f>0.365163956999142*(0.000041868*1000)</f>
-        <v>1.5288684551640083E-2</v>
+        <f>0*(0.000041868*1000)</f>
+        <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="16">
-        <f>4496.77270215507*(0.000041868*1000)</f>
-        <v>188.27087949382837</v>
+        <f>4497*(0.000041868*1000)</f>
+        <v>188.28039600000002</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="16">
-        <f>115.683101348052*(0.000041868*1000)</f>
-        <v>4.8434200872402542</v>
+        <f>116*(0.000041868*1000)</f>
+        <v>4.8566880000000001</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="16">
-        <f>42.7853284170371*(0.000041868*1000)</f>
-        <v>1.791336130164511</v>
+        <f>43*(0.000041868*1000)</f>
+        <v>1.800324</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="16">
-        <f>4655.60629587716*(0.000041868*1000)</f>
-        <v>194.92092439578477</v>
+        <f>4656*(0.000041868*1000)</f>
+        <v>194.937408</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1547,37 +1545,37 @@
         <v>33</v>
       </c>
       <c r="B28" s="16">
-        <f>1.76745698728853*(0.000041868*1000)</f>
-        <v>7.3999889143796002E-2</v>
+        <f>2*(0.000041868*1000)</f>
+        <v>8.3736000000000005E-2</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="16">
-        <f>534.329671217919*(0.000041868*1000)</f>
-        <v>22.371314674551829</v>
+        <f>534*(0.000041868*1000)</f>
+        <v>22.357512</v>
       </c>
       <c r="E28" s="16">
-        <f>854.885995750106*(0.000041868*1000)</f>
-        <v>35.792366870065436</v>
+        <f>855*(0.000041868*1000)</f>
+        <v>35.797139999999999</v>
       </c>
       <c r="F28" s="16">
-        <f>87.380202728975*(0.000041868*1000)</f>
-        <v>3.6584343278567246</v>
+        <f>87*(0.000041868*1000)</f>
+        <v>3.6425160000000001</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="16">
-        <f>739.99228323434*(0.000041868*1000)</f>
-        <v>30.98199691445533</v>
+        <f>740*(0.000041868*1000)</f>
+        <v>30.982320000000001</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="16">
-        <f>2218.35560991863*(0.000041868*1000)</f>
-        <v>92.87811267607313</v>
+        <f>2218*(0.000041868*1000)</f>
+        <v>92.863224000000002</v>
       </c>
     </row>
   </sheetData>
